--- a/project/杜鑫宇/测试用例Excel表格/黑盒测试用例.xlsx
+++ b/project/杜鑫宇/测试用例Excel表格/黑盒测试用例.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\AAAExperimentTesting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{761FE25B-AFAE-47EE-AFB6-9848B7D6ED3F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B67CA14-CA84-4E7A-9E18-752637B82418}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1030,9 +1030,6 @@
     <t>鼠标滑上"用户与身份"，在显示出的扩展窗口中，单击“用户配置”列表中的“微信绑定”</t>
   </si>
   <si>
-    <t>页面跳转进入到“微信绑定”界面，正确显示绑定信息</t>
-  </si>
-  <si>
     <t>验证在用户与身份的扩展窗口中单击用户配置列表下面的“微信绑定”，跳转后的页面是否能正确显示绑定信息，其界面设计显示是否合理</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1166,14 +1163,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>1.单击用户配置下方的“短信配置”切换进入到短信配置界面；
-2.在短信重发时间下方的文本框中清除原本数据，输入测试数据；
-3.在短信平台密码下方的文本框中输入测试数据：123321
-4.单击页面下方的”保存“按钮；
-5.单击提示框中的”确定“；</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>页面下方弹窗提示内容为“保存配置成功。页面即将自动跳转~”的提示信息；2秒后，页面自动跳转回用户配置界面的首页注册配置界面；成功实现“短信配置”操作</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1359,9 +1348,6 @@
   </si>
   <si>
     <t>页面提示操作成功的相关提示信息；页面跳转；</t>
-  </si>
-  <si>
-    <t>页面刷新；</t>
   </si>
   <si>
     <t>验证在模块中用户配置列表下基础配置中用户信息功能项的用户列表界面中是否能成功实现对用户信息进行“修改第三方登录邮箱后缀”操作</t>
@@ -1557,6 +1543,22 @@
   </si>
   <si>
     <t>67</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>页面刷新，成功实现“选择用户分组”操作；</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.单击用户配置下方的“短信配置”切换进入到短信配置界面；
+2.在短信重发时间下方的文本框中清除原本数据，输入测试数据：40
+3.在短信平台密码下方的文本框中输入测试数据：123321
+4.单击页面下方的”保存“按钮；
+5.单击提示框中的”确定“；</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>页面跳转进入到“用户列表”界面，列表中正确显示用户信息</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1843,6 +1845,19 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1858,25 +1873,12 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2159,8 +2161,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H69"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" topLeftCell="A54" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J55" sqref="J55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2175,41 +2177,41 @@
     <col min="8" max="8" width="42.33203125" style="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="37" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="35" t="s">
+    <row r="1" spans="1:8" s="30" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-    </row>
-    <row r="2" spans="1:8" s="34" customFormat="1" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="31" t="s">
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+    </row>
+    <row r="2" spans="1:8" s="29" customFormat="1" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="32" t="s">
+      <c r="C2" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="32" t="s">
+      <c r="D2" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="32" t="s">
+      <c r="E2" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="32" t="s">
+      <c r="F2" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="32" t="s">
+      <c r="G2" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="33" t="s">
+      <c r="H2" s="28" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2315,13 +2317,13 @@
       <c r="A7" s="9">
         <v>5</v>
       </c>
-      <c r="B7" s="26" t="s">
+      <c r="B7" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="27" t="s">
+      <c r="C7" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="29" t="s">
+      <c r="D7" s="34" t="s">
         <v>16</v>
       </c>
       <c r="E7" s="10" t="s">
@@ -2341,9 +2343,9 @@
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" s="27"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="29"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="34"/>
       <c r="E8" s="2" t="s">
         <v>34</v>
       </c>
@@ -2361,9 +2363,9 @@
       <c r="A9" s="9">
         <v>7</v>
       </c>
-      <c r="B9" s="27"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="29"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="34"/>
       <c r="E9" s="10" t="s">
         <v>38</v>
       </c>
@@ -2381,9 +2383,9 @@
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" s="28"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="30"/>
+      <c r="B10" s="33"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="35"/>
       <c r="E10" s="2" t="s">
         <v>42</v>
       </c>
@@ -3130,10 +3132,10 @@
         <v>204</v>
       </c>
       <c r="B39" s="23" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C39" s="24" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D39" s="24" t="s">
         <v>206</v>
@@ -3142,13 +3144,13 @@
         <v>11</v>
       </c>
       <c r="F39" s="24" t="s">
+        <v>288</v>
+      </c>
+      <c r="G39" s="24" t="s">
+        <v>289</v>
+      </c>
+      <c r="H39" s="25" t="s">
         <v>290</v>
-      </c>
-      <c r="G39" s="24" t="s">
-        <v>291</v>
-      </c>
-      <c r="H39" s="25" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="132" customHeight="1" x14ac:dyDescent="0.25">
@@ -3159,7 +3161,7 @@
         <v>205</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D40" s="3" t="s">
         <v>47</v>
@@ -3168,13 +3170,13 @@
         <v>66</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="140.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -3185,7 +3187,7 @@
         <v>205</v>
       </c>
       <c r="C41" s="24" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D41" s="24" t="s">
         <v>206</v>
@@ -3194,7 +3196,7 @@
         <v>207</v>
       </c>
       <c r="F41" s="24" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="G41" s="24" t="s">
         <v>208</v>
@@ -3283,7 +3285,7 @@
     </row>
     <row r="45" spans="1:8" ht="78" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B45" s="5" t="s">
         <v>210</v>
@@ -3315,7 +3317,7 @@
         <v>230</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D46" s="3" t="s">
         <v>47</v>
@@ -3327,36 +3329,36 @@
         <v>231</v>
       </c>
       <c r="G46" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="H46" s="4" t="s">
         <v>234</v>
-      </c>
-      <c r="H46" s="4" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="97.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B47" s="6" t="s">
         <v>230</v>
       </c>
       <c r="C47" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="D47" s="7" t="s">
         <v>237</v>
-      </c>
-      <c r="D47" s="7" t="s">
-        <v>238</v>
       </c>
       <c r="E47" s="6" t="s">
         <v>66</v>
       </c>
       <c r="F47" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="G47" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="G47" s="7" t="s">
+      <c r="H47" s="8" t="s">
         <v>240</v>
-      </c>
-      <c r="H47" s="8" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="181.8" customHeight="1" x14ac:dyDescent="0.25">
@@ -3364,51 +3366,51 @@
         <v>46</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C48" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="D48" s="3" t="s">
         <v>242</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>243</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>66</v>
       </c>
       <c r="F48" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="G48" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="G48" s="3" t="s">
+      <c r="H48" s="4" t="s">
         <v>245</v>
-      </c>
-      <c r="H48" s="4" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="118.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E49" s="6" t="s">
         <v>66</v>
       </c>
       <c r="F49" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="G49" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="H49" s="8" t="s">
         <v>248</v>
-      </c>
-      <c r="G49" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="H49" s="8" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="116.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -3416,51 +3418,51 @@
         <v>48</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C50" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="E50" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="D50" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="E50" s="2" t="s">
+      <c r="F50" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="F50" s="3" t="s">
+      <c r="G50" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="G50" s="3" t="s">
+      <c r="H50" s="4" t="s">
         <v>253</v>
-      </c>
-      <c r="H50" s="4" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="112.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C51" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="D51" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="E51" s="6" t="s">
         <v>255</v>
       </c>
-      <c r="D51" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="E51" s="6" t="s">
+      <c r="F51" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="F51" s="7" t="s">
+      <c r="G51" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="H51" s="8" t="s">
         <v>257</v>
-      </c>
-      <c r="G51" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="H51" s="8" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="146.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -3468,51 +3470,51 @@
         <v>50</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C52" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="G52" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="E52" s="2" t="s">
+      <c r="H52" s="4" t="s">
         <v>265</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="H52" s="4" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="154.19999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C53" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="D53" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="E53" s="6" t="s">
         <v>261</v>
       </c>
-      <c r="D53" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="E53" s="6" t="s">
+      <c r="F53" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="F53" s="7" t="s">
+      <c r="G53" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="H53" s="8" t="s">
         <v>263</v>
-      </c>
-      <c r="G53" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="H53" s="8" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="111.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -3520,36 +3522,36 @@
         <v>52</v>
       </c>
       <c r="B54" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="E54" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="C54" s="3" t="s">
+      <c r="F54" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="D54" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="E54" s="2" t="s">
+      <c r="G54" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="F54" s="3" t="s">
+      <c r="H54" s="4" t="s">
         <v>275</v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="H54" s="4" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="82.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="9" t="s">
+        <v>291</v>
+      </c>
+      <c r="B55" s="10" t="s">
+        <v>292</v>
+      </c>
+      <c r="C55" s="11" t="s">
         <v>293</v>
-      </c>
-      <c r="B55" s="10" t="s">
-        <v>294</v>
-      </c>
-      <c r="C55" s="11" t="s">
-        <v>295</v>
       </c>
       <c r="D55" s="11" t="s">
         <v>47</v>
@@ -3558,13 +3560,13 @@
         <v>66</v>
       </c>
       <c r="F55" s="11" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="G55" s="11" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="H55" s="12" t="s">
-        <v>232</v>
+        <v>369</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="117" customHeight="1" x14ac:dyDescent="0.25">
@@ -3572,51 +3574,51 @@
         <v>54</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>66</v>
       </c>
       <c r="F56" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="G56" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="H56" s="4" t="s">
         <v>300</v>
-      </c>
-      <c r="G56" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="H56" s="4" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="118.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="9" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D57" s="11" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="E57" s="10" t="s">
         <v>66</v>
       </c>
       <c r="F57" s="11" t="s">
+        <v>302</v>
+      </c>
+      <c r="G57" s="11" t="s">
+        <v>303</v>
+      </c>
+      <c r="H57" s="12" t="s">
         <v>304</v>
-      </c>
-      <c r="G57" s="11" t="s">
-        <v>305</v>
-      </c>
-      <c r="H57" s="12" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="79.8" customHeight="1" x14ac:dyDescent="0.25">
@@ -3624,51 +3626,51 @@
         <v>56</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>66</v>
       </c>
       <c r="F58" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="H58" s="4" t="s">
         <v>308</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="H58" s="4" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="145.19999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="9" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="B59" s="10" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C59" s="11" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D59" s="11" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="E59" s="10" t="s">
         <v>66</v>
       </c>
       <c r="F59" s="11" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="G59" s="11" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="H59" s="12" t="s">
-        <v>314</v>
+        <v>367</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="121.8" customHeight="1" x14ac:dyDescent="0.25">
@@ -3676,36 +3678,36 @@
         <v>58</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>66</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="H60" s="4" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="69.599999999999994" x14ac:dyDescent="0.25">
       <c r="A61" s="9" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B61" s="10" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="C61" s="11" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="D61" s="11" t="s">
         <v>47</v>
@@ -3714,13 +3716,13 @@
         <v>66</v>
       </c>
       <c r="F61" s="11" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="G61" s="11" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="H61" s="12" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="164.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -3728,36 +3730,36 @@
         <v>60</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="C62" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="F62" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="D62" s="3" t="s">
+      <c r="G62" s="3" t="s">
         <v>325</v>
       </c>
-      <c r="E62" s="2" t="s">
+      <c r="H62" s="4" t="s">
         <v>326</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="H62" s="4" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="69.599999999999994" x14ac:dyDescent="0.25">
       <c r="A63" s="9" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="B63" s="10" t="s">
         <v>205</v>
       </c>
       <c r="C63" s="11" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D63" s="11" t="s">
         <v>47</v>
@@ -3766,13 +3768,13 @@
         <v>66</v>
       </c>
       <c r="F63" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="G63" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="H63" s="12" t="s">
         <v>281</v>
-      </c>
-      <c r="G63" s="11" t="s">
-        <v>282</v>
-      </c>
-      <c r="H63" s="12" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="76.2" customHeight="1" x14ac:dyDescent="0.25">
@@ -3780,10 +3782,10 @@
         <v>62</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="D64" s="3" t="s">
         <v>47</v>
@@ -3792,39 +3794,39 @@
         <v>66</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="H64" s="4" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="121.8" x14ac:dyDescent="0.25">
       <c r="A65" s="9" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C65" s="11" t="s">
+        <v>332</v>
+      </c>
+      <c r="D65" s="11" t="s">
+        <v>333</v>
+      </c>
+      <c r="E65" s="10" t="s">
+        <v>334</v>
+      </c>
+      <c r="F65" s="11" t="s">
         <v>335</v>
       </c>
-      <c r="D65" s="11" t="s">
+      <c r="G65" s="11" t="s">
         <v>336</v>
       </c>
-      <c r="E65" s="10" t="s">
+      <c r="H65" s="12" t="s">
         <v>337</v>
-      </c>
-      <c r="F65" s="11" t="s">
-        <v>338</v>
-      </c>
-      <c r="G65" s="11" t="s">
-        <v>339</v>
-      </c>
-      <c r="H65" s="12" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="69.599999999999994" x14ac:dyDescent="0.25">
@@ -3832,10 +3834,10 @@
         <v>64</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D66" s="3" t="s">
         <v>47</v>
@@ -3844,39 +3846,39 @@
         <v>66</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="H66" s="4" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="174" x14ac:dyDescent="0.25">
       <c r="A67" s="9" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="C67" s="11" t="s">
+        <v>343</v>
+      </c>
+      <c r="D67" s="11" t="s">
+        <v>344</v>
+      </c>
+      <c r="E67" s="10" t="s">
+        <v>345</v>
+      </c>
+      <c r="F67" s="11" t="s">
         <v>346</v>
       </c>
-      <c r="D67" s="11" t="s">
+      <c r="G67" s="11" t="s">
         <v>347</v>
       </c>
-      <c r="E67" s="10" t="s">
+      <c r="H67" s="12" t="s">
         <v>348</v>
-      </c>
-      <c r="F67" s="11" t="s">
-        <v>349</v>
-      </c>
-      <c r="G67" s="11" t="s">
-        <v>350</v>
-      </c>
-      <c r="H67" s="12" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="69.599999999999994" x14ac:dyDescent="0.25">
@@ -3884,10 +3886,10 @@
         <v>66</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="D68" s="3" t="s">
         <v>47</v>
@@ -3896,39 +3898,39 @@
         <v>66</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="H68" s="4" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="87" x14ac:dyDescent="0.25">
       <c r="A69" s="9" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="B69" s="10" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="C69" s="11" t="s">
+        <v>354</v>
+      </c>
+      <c r="D69" s="11" t="s">
+        <v>355</v>
+      </c>
+      <c r="E69" s="10" t="s">
+        <v>356</v>
+      </c>
+      <c r="F69" s="11" t="s">
         <v>357</v>
       </c>
-      <c r="D69" s="11" t="s">
+      <c r="G69" s="11" t="s">
         <v>358</v>
       </c>
-      <c r="E69" s="10" t="s">
+      <c r="H69" s="12" t="s">
         <v>359</v>
-      </c>
-      <c r="F69" s="11" t="s">
-        <v>360</v>
-      </c>
-      <c r="G69" s="11" t="s">
-        <v>361</v>
-      </c>
-      <c r="H69" s="12" t="s">
-        <v>362</v>
       </c>
     </row>
   </sheetData>
@@ -3940,5 +3942,6 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>